--- a/data/bw=9.0-kernel=gaussian_poly2-contamweight=0.001-summary.xlsx
+++ b/data/bw=9.0-kernel=gaussian_poly2-contamweight=0.001-summary.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxizhou/Dropbox/code_package/IFlogdensity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D9210C-A25E-3544-A881-E2CAF6AA925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBCD537-F7EB-C441-B3A9-113C1F1115CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="7740" windowWidth="27140" windowHeight="16940" firstSheet="1" activeTab="5" xr2:uid="{E9883583-B6DF-E640-86AB-1582C701575C}"/>
+    <workbookView xWindow="22820" yWindow="7740" windowWidth="27140" windowHeight="16940" activeTab="3" xr2:uid="{E9883583-B6DF-E640-86AB-1582C701575C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ML-20" sheetId="2" r:id="rId1"/>
-    <sheet name="ML-60" sheetId="1" r:id="rId2"/>
-    <sheet name="ML-120" sheetId="3" r:id="rId3"/>
-    <sheet name="ML-150" sheetId="4" r:id="rId4"/>
-    <sheet name="ML-200" sheetId="5" r:id="rId5"/>
-    <sheet name="SM-20" sheetId="6" r:id="rId6"/>
-    <sheet name="SM-60" sheetId="7" r:id="rId7"/>
-    <sheet name="SM-120" sheetId="8" r:id="rId8"/>
-    <sheet name="SM-150" sheetId="9" r:id="rId9"/>
-    <sheet name="SM-200" sheetId="10" r:id="rId10"/>
-    <sheet name="SM-fin-20" sheetId="11" r:id="rId11"/>
-    <sheet name="SM-fin-120" sheetId="12" r:id="rId12"/>
-    <sheet name="SM-fin-150" sheetId="13" r:id="rId13"/>
-    <sheet name="SM-fin-200" sheetId="14" r:id="rId14"/>
+    <sheet name="ML-20-new" sheetId="15" r:id="rId1"/>
+    <sheet name="ML-120-new" sheetId="17" r:id="rId2"/>
+    <sheet name="ML-150-new" sheetId="18" r:id="rId3"/>
+    <sheet name="ML-200-new" sheetId="19" r:id="rId4"/>
+    <sheet name="ML-20" sheetId="2" r:id="rId5"/>
+    <sheet name="ML-60" sheetId="1" r:id="rId6"/>
+    <sheet name="ML-120" sheetId="3" r:id="rId7"/>
+    <sheet name="ML-150" sheetId="4" r:id="rId8"/>
+    <sheet name="ML-200" sheetId="5" r:id="rId9"/>
+    <sheet name="SM-20" sheetId="6" r:id="rId10"/>
+    <sheet name="SM-60" sheetId="7" r:id="rId11"/>
+    <sheet name="SM-120" sheetId="8" r:id="rId12"/>
+    <sheet name="SM-150" sheetId="9" r:id="rId13"/>
+    <sheet name="SM-200" sheetId="10" r:id="rId14"/>
+    <sheet name="SM-fin-20" sheetId="11" r:id="rId15"/>
+    <sheet name="SM-fin-120" sheetId="12" r:id="rId16"/>
+    <sheet name="SM-fin-150" sheetId="13" r:id="rId17"/>
+    <sheet name="SM-fin-200" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="7">
   <si>
     <t>log-lambda</t>
   </si>
@@ -74,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,8 +86,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +137,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EE7633-A005-F94D-B73C-08EA307A6712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46133BA-A475-854F-A35C-103C2A0B8147}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,13 +505,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.7421143199217601</v>
+        <v>2.3303585825540098</v>
       </c>
       <c r="E2" s="1">
-        <v>2.68142061364901</v>
+        <v>2.3088921198328101</v>
       </c>
       <c r="F2" s="1">
-        <v>193.404820208698</v>
+        <v>104.892872497238</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -508,13 +528,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2.7420552931895799</v>
+        <v>2.3303276518589802</v>
       </c>
       <c r="E3" s="1">
-        <v>2.6813651864674402</v>
+        <v>2.3088617359341099</v>
       </c>
       <c r="F3" s="1">
-        <v>193.39685925561</v>
+        <v>104.89054542351801</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -531,13 +551,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7418948600621</v>
+        <v>2.3302435789213698</v>
       </c>
       <c r="E4" s="1">
-        <v>2.6812145366977198</v>
+        <v>2.3087791492773002</v>
       </c>
       <c r="F4" s="1">
-        <v>193.37522127685901</v>
+        <v>104.884220121022</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -554,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2.7414588917981999</v>
+        <v>2.3300150849407899</v>
       </c>
       <c r="E5" s="1">
-        <v>2.6808051532323098</v>
+        <v>2.30855469494115</v>
       </c>
       <c r="F5" s="1">
-        <v>193.31641892727399</v>
+        <v>104.867028675993</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -577,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.74027479796296</v>
+        <v>2.3293942690256602</v>
       </c>
       <c r="E6" s="1">
-        <v>2.6796932569894398</v>
+        <v>2.3079448563298599</v>
       </c>
       <c r="F6" s="1">
-        <v>193.15669406397899</v>
+        <v>104.820316022827</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -600,13 +620,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>2.7370634026142602</v>
+        <v>2.3277088944242998</v>
       </c>
       <c r="E7" s="1">
-        <v>2.6766776180320599</v>
+        <v>2.3062892946260698</v>
       </c>
       <c r="F7" s="1">
-        <v>192.72337632591501</v>
+        <v>104.69347474065999</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -623,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.7337787382285401</v>
+        <v>2.3259825632994402</v>
       </c>
       <c r="E8" s="1">
-        <v>2.6735930975387801</v>
+        <v>2.3045935190587801</v>
       </c>
       <c r="F8" s="1">
-        <v>192.27998216217301</v>
+        <v>104.56351016102499</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -646,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2.7283875955139698</v>
+        <v>2.3231436118817101</v>
       </c>
       <c r="E9" s="1">
-        <v>2.6685302771365</v>
+        <v>2.3018048561839102</v>
       </c>
       <c r="F9" s="1">
-        <v>191.551820468145</v>
+        <v>104.34969345483201</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -669,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2.7195647917755301</v>
+        <v>2.3184826938443499</v>
       </c>
       <c r="E10" s="1">
-        <v>2.6602443044593298</v>
+        <v>2.29722660805046</v>
       </c>
       <c r="F10" s="1">
-        <v>190.36009801306199</v>
+        <v>103.998412245108</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -692,128 +712,128 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.7051947389538502</v>
+        <v>2.3108513570574498</v>
       </c>
       <c r="E11" s="1">
-        <v>2.6467472860474501</v>
+        <v>2.28973091424584</v>
       </c>
       <c r="F11" s="1">
-        <v>188.41616170717001</v>
+        <v>103.422609027486</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>-7.5</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.2</v>
+      <c r="B12" s="6">
+        <v>0.3</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>2.6819717554301401</v>
+        <v>2.29841233700642</v>
       </c>
       <c r="E12" s="1">
-        <v>2.6249315130121502</v>
+        <v>2.2775137507377901</v>
       </c>
       <c r="F12" s="1">
-        <v>185.267025516839</v>
+        <v>102.48233171889601</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>-7</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.2</v>
+      <c r="B13" s="6">
+        <v>0.3</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2.4597646406037001</v>
+        <v>2.2782847322768598</v>
       </c>
       <c r="E13" s="1">
-        <v>2.4312619661607999</v>
+        <v>2.2577471035297498</v>
       </c>
       <c r="F13" s="1">
-        <v>120.61978900893401</v>
+        <v>100.95637186128999</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>-6.5</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.2</v>
+      <c r="B14" s="6">
+        <v>0.3</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>2.4177973681609801</v>
+        <v>2.2461019042313302</v>
       </c>
       <c r="E14" s="1">
-        <v>2.3903288896986901</v>
+        <v>2.2261463778875998</v>
       </c>
       <c r="F14" s="1">
-        <v>117.009312935699</v>
+        <v>98.505048820552304</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>-6</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.2</v>
+      <c r="B15" s="6">
+        <v>0.3</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2.3528207335999198</v>
+        <v>2.1956222709739199</v>
       </c>
       <c r="E15" s="1">
-        <v>2.3269719115478198</v>
+        <v>2.1765915467256201</v>
       </c>
       <c r="F15" s="1">
-        <v>111.37239820995499</v>
+        <v>94.634073397891399</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>-5.5</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.2</v>
+      <c r="B16" s="6">
+        <v>0.3</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>2.20701909044586</v>
+        <v>2.1188173891624298</v>
       </c>
       <c r="E16" s="1">
-        <v>2.1863207191988598</v>
+        <v>2.1012188405921202</v>
       </c>
       <c r="F16" s="1">
-        <v>92.672254254487996</v>
+        <v>88.684983523034305</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -830,20 +850,20 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0857187413250098</v>
+        <v>2.0645143389141398</v>
       </c>
       <c r="E17" s="1">
-        <v>2.0676182867919399</v>
+        <v>2.0467851989352099</v>
       </c>
       <c r="F17" s="1">
-        <v>82.980469438769603</v>
+        <v>82.965973345260096</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>-4.5</v>
       </c>
       <c r="B18" s="1">
@@ -853,20 +873,20 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1.9221858663137901</v>
+        <v>1.90572741043907</v>
       </c>
       <c r="E18" s="1">
-        <v>1.9060798645940999</v>
+        <v>1.8914608137204201</v>
       </c>
       <c r="F18" s="1">
-        <v>71.532885656267794</v>
+        <v>69.911903746703501</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>-4</v>
       </c>
       <c r="B19" s="1">
@@ -876,20 +896,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1.6295410586446999</v>
+        <v>1.70811169696684</v>
       </c>
       <c r="E19" s="1">
-        <v>1.6210854886016399</v>
+        <v>1.6978139881216601</v>
       </c>
       <c r="F19" s="1">
-        <v>47.930214794202897</v>
+        <v>53.547185016149903</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>-3.5</v>
       </c>
       <c r="B20" s="1">
@@ -899,20 +919,20 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1.4081582987340899</v>
+        <v>1.3918452369905501</v>
       </c>
       <c r="E20" s="1">
-        <v>1.40246373736715</v>
+        <v>1.3866104565225099</v>
       </c>
       <c r="F20" s="1">
-        <v>34.671567202764201</v>
+        <v>34.039420665859403</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>-3</v>
       </c>
       <c r="B21" s="1">
@@ -922,20 +942,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1.1774467079514399</v>
+        <v>1.19848214370103</v>
       </c>
       <c r="E21" s="1">
-        <v>1.1740890596456199</v>
+        <v>1.19489905984115</v>
       </c>
       <c r="F21" s="1">
-        <v>23.291562450402999</v>
+        <v>23.450236787187599</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>-2.5</v>
       </c>
       <c r="B22" s="1">
@@ -945,20 +965,20 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.95884452864068104</v>
+        <v>0.96571646003971601</v>
       </c>
       <c r="E22" s="1">
-        <v>0.95689945067340498</v>
+        <v>0.96359309764781698</v>
       </c>
       <c r="F22" s="1">
-        <v>15.1404780772033</v>
+        <v>15.1587014894296</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>-2</v>
       </c>
       <c r="B23" s="1">
@@ -968,20 +988,20 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.74494639446656596</v>
+        <v>0.73534045113527602</v>
       </c>
       <c r="E23" s="1">
-        <v>0.74379338629535896</v>
+        <v>0.73419629426353405</v>
       </c>
       <c r="F23" s="1">
-        <v>9.5364631528020993</v>
+        <v>9.5027345583673597</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>-1.5</v>
       </c>
       <c r="B24" s="1">
@@ -991,20 +1011,20 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>0.54442112086210903</v>
+        <v>0.54103691604168702</v>
       </c>
       <c r="E24" s="1">
-        <v>0.54377325394188403</v>
+        <v>0.54037698388099697</v>
       </c>
       <c r="F24" s="1">
-        <v>5.8839283349705296</v>
+        <v>5.8716397786611196</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>-1</v>
       </c>
       <c r="B25" s="1">
@@ -1014,20 +1034,20 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.38895292875948601</v>
+        <v>0.38828851760161298</v>
       </c>
       <c r="E25" s="1">
-        <v>0.38855607769109701</v>
+        <v>0.38789859441338997</v>
       </c>
       <c r="F25" s="1">
-        <v>3.60596480314612</v>
+        <v>3.6188772592460299</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>-0.5</v>
       </c>
       <c r="B26" s="1">
@@ -1037,20 +1057,20 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.27060722155517197</v>
+        <v>0.26588100533629799</v>
       </c>
       <c r="E26" s="1">
-        <v>0.27036770178681002</v>
+        <v>0.26563959534963599</v>
       </c>
       <c r="F26" s="1">
-        <v>2.2413520324882001</v>
+        <v>2.2191140980432</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
       <c r="B27" s="1">
@@ -1060,20 +1080,20 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>0.17893548725713901</v>
+        <v>0.17671950112255599</v>
       </c>
       <c r="E27" s="1">
-        <v>0.17880501046605801</v>
+        <v>0.17658535526371999</v>
       </c>
       <c r="F27" s="1">
-        <v>1.3576727895987499</v>
+        <v>1.35751124592786</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>0.5</v>
       </c>
       <c r="B28" s="1">
@@ -1083,20 +1103,20 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.117668648807293</v>
+        <v>0.116916028876294</v>
       </c>
       <c r="E28" s="1">
-        <v>0.117587805432064</v>
+        <v>0.11683901694064799</v>
       </c>
       <c r="F28" s="1">
-        <v>0.82610717614173201</v>
+        <v>0.82635571986600098</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="1">
@@ -1124,6 +1144,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E8BDC0-1C7A-494E-8238-3B1FFEFD3280}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>54.774172793479401</v>
+      </c>
+      <c r="C2">
+        <v>83.481222561928604</v>
+      </c>
+      <c r="D2">
+        <v>38797.425091958401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>42.031338046322297</v>
+      </c>
+      <c r="C3">
+        <v>56.484017886537302</v>
+      </c>
+      <c r="D3">
+        <v>19506.0440669038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>33.068151771664098</v>
+      </c>
+      <c r="C4">
+        <v>40.070257086784601</v>
+      </c>
+      <c r="D4">
+        <v>15570.490294901199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>26.4535881697817</v>
+      </c>
+      <c r="C5">
+        <v>29.762542566140599</v>
+      </c>
+      <c r="D5">
+        <v>13623.7657006011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>21.246091706811399</v>
+      </c>
+      <c r="C6">
+        <v>22.842237397319</v>
+      </c>
+      <c r="D6">
+        <v>9241.6773419946403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>17.106289475189001</v>
+      </c>
+      <c r="C7">
+        <v>17.966539211394299</v>
+      </c>
+      <c r="D7">
+        <v>6391.1672334325503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>13.9631171798921</v>
+      </c>
+      <c r="C8">
+        <v>14.5289779916271</v>
+      </c>
+      <c r="D8">
+        <v>4487.5966926085403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>11.6648466591655</v>
+      </c>
+      <c r="C9">
+        <v>12.102807417727</v>
+      </c>
+      <c r="D9">
+        <v>3162.2724769323099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>9.9144654073020195</v>
+      </c>
+      <c r="C10">
+        <v>10.2679814159939</v>
+      </c>
+      <c r="D10">
+        <v>2211.2454837948599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.4200475358023201</v>
+      </c>
+      <c r="C11">
+        <v>8.6958974568350094</v>
+      </c>
+      <c r="D11">
+        <v>1520.4883059562901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>7.0214806162706296</v>
+      </c>
+      <c r="C12">
+        <v>7.2249432354989098</v>
+      </c>
+      <c r="D12">
+        <v>1022.82417764391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.7040295927564904</v>
+      </c>
+      <c r="C13">
+        <v>5.8452863973595299</v>
+      </c>
+      <c r="D13">
+        <v>672.38604511335905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.5364951352778604</v>
+      </c>
+      <c r="C14">
+        <v>4.6284158161223603</v>
+      </c>
+      <c r="D14">
+        <v>432.747756172442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.5840550338627</v>
+      </c>
+      <c r="C15">
+        <v>3.6398530981000201</v>
+      </c>
+      <c r="D15">
+        <v>273.64435979618298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>2.8525548725626102</v>
+      </c>
+      <c r="C16">
+        <v>2.8841880367606301</v>
+      </c>
+      <c r="D16">
+        <v>170.71049570348799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.2959713534673298</v>
+      </c>
+      <c r="C17">
+        <v>2.3128680096512002</v>
+      </c>
+      <c r="D17">
+        <v>105.463805926262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>1.8558077694332</v>
+      </c>
+      <c r="C18">
+        <v>1.86438444800588</v>
+      </c>
+      <c r="D18">
+        <v>64.722050386841005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.4871123776169599</v>
+      </c>
+      <c r="C19">
+        <v>1.4912415353344499</v>
+      </c>
+      <c r="D19">
+        <v>39.538770819756699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.1645019377261101</v>
+      </c>
+      <c r="C20">
+        <v>1.16634782069472</v>
+      </c>
+      <c r="D20">
+        <v>24.078264109860399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.87993661851225002</v>
+      </c>
+      <c r="C21">
+        <v>0.88066052532779104</v>
+      </c>
+      <c r="D21">
+        <v>14.6287479994349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.63675262080666095</v>
+      </c>
+      <c r="C22">
+        <v>0.63696302850143804</v>
+      </c>
+      <c r="D22">
+        <v>8.8711944228876405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.44091611139018899</v>
+      </c>
+      <c r="C23">
+        <v>0.44092036976030202</v>
+      </c>
+      <c r="D23">
+        <v>5.3726448021222897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.293669157447422</v>
+      </c>
+      <c r="C24">
+        <v>0.29361066315301798</v>
+      </c>
+      <c r="D24">
+        <v>3.2518606817681901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.18970375590319699</v>
+      </c>
+      <c r="C25">
+        <v>0.18964045443994099</v>
+      </c>
+      <c r="D25">
+        <v>1.96827820609968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.11986823950179901</v>
+      </c>
+      <c r="C26">
+        <v>0.119818009630846</v>
+      </c>
+      <c r="D26">
+        <v>1.1917984282874201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>7.4614185824670096E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.4578932715594001E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.72196634933874204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>4.5993551869142002E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.5970299310437598E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.43752510462269301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>2.8176200850287499E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.81613829747096E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.26522650374971501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>1.71945487126582E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.7185292195077299E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.16081197940209699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.0468020874050901E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.04623061249557E-2</v>
+      </c>
+      <c r="D31">
+        <v>9.7516237449468607E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6.3636222626311497E-3</v>
+      </c>
+      <c r="C32">
+        <v>6.3601188390312001E-3</v>
+      </c>
+      <c r="D32">
+        <v>5.9138678945913598E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>3.8650690087229699E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.8629302974756501E-3</v>
+      </c>
+      <c r="D33">
+        <v>3.5866484104474197E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.34625124647167E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.3449489677481402E-3</v>
+      </c>
+      <c r="D34">
+        <v>2.1753035113647401E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C15C16D-3F3A-4445-952C-79188DBCF960}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>54.774172793704501</v>
+      </c>
+      <c r="C2">
+        <v>55.131864487457598</v>
+      </c>
+      <c r="D2">
+        <v>112.82992446196501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>42.031338045808901</v>
+      </c>
+      <c r="C3">
+        <v>42.370628874188</v>
+      </c>
+      <c r="D3">
+        <v>66.810865133096897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>33.068151772237002</v>
+      </c>
+      <c r="C4">
+        <v>33.370790290639199</v>
+      </c>
+      <c r="D4">
+        <v>92.596170748441494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>26.453588169408299</v>
+      </c>
+      <c r="C5">
+        <v>26.7056221876291</v>
+      </c>
+      <c r="D5">
+        <v>69.271935428080397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>21.246091706885501</v>
+      </c>
+      <c r="C6">
+        <v>21.4438289930387</v>
+      </c>
+      <c r="D6">
+        <v>42.297897171231099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>17.106289475146301</v>
+      </c>
+      <c r="C7">
+        <v>17.254221020512201</v>
+      </c>
+      <c r="D7">
+        <v>20.769220395219801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>13.963117179850901</v>
+      </c>
+      <c r="C8">
+        <v>14.070226692799899</v>
+      </c>
+      <c r="D8">
+        <v>12.539057459927699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>11.6648466591502</v>
+      </c>
+      <c r="C9">
+        <v>11.741015220064</v>
+      </c>
+      <c r="D9">
+        <v>12.0675078387284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>9.9144654072968805</v>
+      </c>
+      <c r="C10">
+        <v>9.9678279318580305</v>
+      </c>
+      <c r="D10">
+        <v>11.5192497465699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.42004753580742</v>
+      </c>
+      <c r="C11">
+        <v>8.4562351233143591</v>
+      </c>
+      <c r="D11">
+        <v>10.871112172615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>7.0214806162703098</v>
+      </c>
+      <c r="C12">
+        <v>7.0442195356097397</v>
+      </c>
+      <c r="D12">
+        <v>10.118179372642301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.7040295927561404</v>
+      </c>
+      <c r="C13">
+        <v>5.7159714395589596</v>
+      </c>
+      <c r="D13">
+        <v>9.2763493571359401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.5364951352779697</v>
+      </c>
+      <c r="C14">
+        <v>4.5399390759382499</v>
+      </c>
+      <c r="D14">
+        <v>8.3759038148683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.5840550338627102</v>
+      </c>
+      <c r="C15">
+        <v>3.58149982683359</v>
+      </c>
+      <c r="D15">
+        <v>7.4481583007814898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>2.85255487256262</v>
+      </c>
+      <c r="C16">
+        <v>2.8467547253165302</v>
+      </c>
+      <c r="D16">
+        <v>6.5079179291904703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.2959713534673298</v>
+      </c>
+      <c r="C17">
+        <v>2.2893921251276899</v>
+      </c>
+      <c r="D17">
+        <v>5.5641910602535196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>1.8558077694332</v>
+      </c>
+      <c r="C18">
+        <v>1.8500322599196899</v>
+      </c>
+      <c r="D18">
+        <v>4.6309185949349096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.4871123776169499</v>
+      </c>
+      <c r="C19">
+        <v>1.48273912137849</v>
+      </c>
+      <c r="D19">
+        <v>3.7317773422751399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.1645019377261101</v>
+      </c>
+      <c r="C20">
+        <v>1.16147455814065</v>
+      </c>
+      <c r="D20">
+        <v>2.8941719074282402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.87993661851224902</v>
+      </c>
+      <c r="C21">
+        <v>0.877945067947276</v>
+      </c>
+      <c r="D21">
+        <v>2.1475203074778899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.63675262080666095</v>
+      </c>
+      <c r="C22">
+        <v>0.63547860244541998</v>
+      </c>
+      <c r="D22">
+        <v>1.5208316825923101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.44091611139018899</v>
+      </c>
+      <c r="C23">
+        <v>0.44011475559219199</v>
+      </c>
+      <c r="D23">
+        <v>1.0314885686075701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.293669157447422</v>
+      </c>
+      <c r="C24">
+        <v>0.29317096528051201</v>
+      </c>
+      <c r="D24">
+        <v>0.67533774432337801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.18970375590319699</v>
+      </c>
+      <c r="C25">
+        <v>0.189396628857331</v>
+      </c>
+      <c r="D25">
+        <v>0.43075199527953201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.11986823950179901</v>
+      </c>
+      <c r="C26">
+        <v>0.119680003630945</v>
+      </c>
+      <c r="D26">
+        <v>0.26979525404957599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>7.4614185824670096E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.4499264414132904E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.16697424015044099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>4.5993551869142002E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.5923564936507698E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.10254454524449801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>2.8176200850287499E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.8133645602193301E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.2677355571860702E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>1.71945487126582E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.7168698258151E-2</v>
+      </c>
+      <c r="D30">
+        <v>3.8194894750098698E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.0468020874050901E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.04523272024602E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.32327880484994E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6.3636222626311497E-3</v>
+      </c>
+      <c r="C32">
+        <v>6.3540981870789399E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.4115944226400501E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>3.8650690087229699E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.8592903803981102E-3</v>
+      </c>
+      <c r="D33">
+        <v>8.5708084829327902E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.34625124647167E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.34274560019134E-3</v>
+      </c>
+      <c r="D34">
+        <v>5.2017951874816504E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A5F18C-CB85-7E49-B60E-1D3620CA95E5}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>54.774172793302398</v>
+      </c>
+      <c r="C2">
+        <v>87.129431317070797</v>
+      </c>
+      <c r="D2">
+        <v>42835.540471340501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>42.031338045999398</v>
+      </c>
+      <c r="C3">
+        <v>59.048183996870002</v>
+      </c>
+      <c r="D3">
+        <v>23072.880979550901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>33.068151771933699</v>
+      </c>
+      <c r="C4">
+        <v>41.748155665798002</v>
+      </c>
+      <c r="D4">
+        <v>13895.568675274701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>26.453588169334999</v>
+      </c>
+      <c r="C5">
+        <v>30.771937018482799</v>
+      </c>
+      <c r="D5">
+        <v>10379.2747959191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>21.2460917067046</v>
+      </c>
+      <c r="C6">
+        <v>23.3601642215786</v>
+      </c>
+      <c r="D6">
+        <v>6364.9583344437096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>17.106289475151002</v>
+      </c>
+      <c r="C7">
+        <v>18.1286670149522</v>
+      </c>
+      <c r="D7">
+        <v>3841.77725671293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>13.9631171798961</v>
+      </c>
+      <c r="C8">
+        <v>14.4522971428181</v>
+      </c>
+      <c r="D8">
+        <v>2308.8299524670601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>11.6648466591515</v>
+      </c>
+      <c r="C9">
+        <v>11.8974256175468</v>
+      </c>
+      <c r="D9">
+        <v>1386.3228557667601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>9.9144654072924006</v>
+      </c>
+      <c r="C10">
+        <v>10.0262728670304</v>
+      </c>
+      <c r="D10">
+        <v>836.00522691296999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.4200475358048692</v>
+      </c>
+      <c r="C11">
+        <v>8.4770564299992799</v>
+      </c>
+      <c r="D11">
+        <v>507.88927903340601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>7.0214806162708001</v>
+      </c>
+      <c r="C12">
+        <v>7.0541956305904101</v>
+      </c>
+      <c r="D12">
+        <v>311.03519793420901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.7040295927559601</v>
+      </c>
+      <c r="C13">
+        <v>5.7251730174086299</v>
+      </c>
+      <c r="D13">
+        <v>191.92148843199499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.5364951352778098</v>
+      </c>
+      <c r="C14">
+        <v>4.5508411778820399</v>
+      </c>
+      <c r="D14">
+        <v>119.084620617396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.5840550338628101</v>
+      </c>
+      <c r="C15">
+        <v>3.5935226160734901</v>
+      </c>
+      <c r="D15">
+        <v>74.045400931325304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>2.8525548725626</v>
+      </c>
+      <c r="C16">
+        <v>2.8583479126870999</v>
+      </c>
+      <c r="D16">
+        <v>45.9727399261904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.2959713534673201</v>
+      </c>
+      <c r="C17">
+        <v>2.2991629366053399</v>
+      </c>
+      <c r="D17">
+        <v>28.4387641345098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>1.85580776943319</v>
+      </c>
+      <c r="C18">
+        <v>1.8573293375865401</v>
+      </c>
+      <c r="D18">
+        <v>17.514135038812299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.4871123776169499</v>
+      </c>
+      <c r="C19">
+        <v>1.4876658969452501</v>
+      </c>
+      <c r="D19">
+        <v>10.7382642251376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.1645019377261101</v>
+      </c>
+      <c r="C20">
+        <v>1.16455095746189</v>
+      </c>
+      <c r="D20">
+        <v>6.5555936429379997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.87993661851224902</v>
+      </c>
+      <c r="C21">
+        <v>0.87975997932874805</v>
+      </c>
+      <c r="D21">
+        <v>3.9851703365396598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.63675262080666095</v>
+      </c>
+      <c r="C22">
+        <v>0.63650856498227304</v>
+      </c>
+      <c r="D22">
+        <v>2.41230900795841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.44091611139018899</v>
+      </c>
+      <c r="C23">
+        <v>0.440686567719142</v>
+      </c>
+      <c r="D23">
+        <v>1.4552885741174699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.293669157447422</v>
+      </c>
+      <c r="C24">
+        <v>0.293486835439142</v>
+      </c>
+      <c r="D24">
+        <v>0.87645224275156797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.18970375590319699</v>
+      </c>
+      <c r="C25">
+        <v>0.189572703325706</v>
+      </c>
+      <c r="D25">
+        <v>0.52792120107447704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.11986823950179901</v>
+      </c>
+      <c r="C26">
+        <v>0.11977981649177601</v>
+      </c>
+      <c r="D26">
+        <v>0.31838075006440603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>7.4614185824670096E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.4556882517495496E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.192301435644637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>4.5993551869142002E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.5957346931923E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.116303870587586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>2.8176200850287499E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.81536847895341E-2</v>
+      </c>
+      <c r="D29">
+        <v>7.0410415933253007E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>1.71945487126582E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.7180681685329401E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.2655573821548297E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.0468020874050901E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.04595314340102E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.58528361083421E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6.3636222626311497E-3</v>
+      </c>
+      <c r="C32">
+        <v>6.3584439272476399E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.56734056044882E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>3.8650690087229699E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.8619173707806599E-3</v>
+      </c>
+      <c r="D33">
+        <v>9.5037514462603598E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.34625124647167E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.3443356866537802E-3</v>
+      </c>
+      <c r="D34">
+        <v>5.7633360874831396E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98CB5-A127-3249-A206-D976CAA2767C}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2">
+        <v>54.774172792862203</v>
+      </c>
+      <c r="C2">
+        <v>88.803810337866594</v>
+      </c>
+      <c r="D2">
+        <v>42247.957947372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14.5</v>
+      </c>
+      <c r="B3">
+        <v>42.031338045041402</v>
+      </c>
+      <c r="C3">
+        <v>59.708698110383999</v>
+      </c>
+      <c r="D3">
+        <v>21701.982584529102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B4">
+        <v>33.068151772052502</v>
+      </c>
+      <c r="C4">
+        <v>41.908440936373601</v>
+      </c>
+      <c r="D4">
+        <v>13234.553628821899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="B5">
+        <v>26.453588169305998</v>
+      </c>
+      <c r="C5">
+        <v>30.737070957933</v>
+      </c>
+      <c r="D5">
+        <v>9031.22404528072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B6">
+        <v>21.246091706785499</v>
+      </c>
+      <c r="C6">
+        <v>23.292321686786401</v>
+      </c>
+      <c r="D6">
+        <v>5522.9390774242802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="B7">
+        <v>17.1062894751397</v>
+      </c>
+      <c r="C7">
+        <v>18.082566508196301</v>
+      </c>
+      <c r="D7">
+        <v>3396.2649303179301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B8">
+        <v>13.963117179904</v>
+      </c>
+      <c r="C8">
+        <v>14.429089755150599</v>
+      </c>
+      <c r="D8">
+        <v>2112.4554849818201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="B9">
+        <v>11.6648466591445</v>
+      </c>
+      <c r="C9">
+        <v>11.886555585841</v>
+      </c>
+      <c r="D9">
+        <v>1332.0097294565801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B10">
+        <v>9.9144654072986391</v>
+      </c>
+      <c r="C10">
+        <v>10.019304724797999</v>
+      </c>
+      <c r="D10">
+        <v>848.79802219893804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="B11">
+        <v>8.4200475358094007</v>
+      </c>
+      <c r="C11">
+        <v>8.4690188502525707</v>
+      </c>
+      <c r="D11">
+        <v>542.20320957597301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>7.0214806162708099</v>
+      </c>
+      <c r="C12">
+        <v>7.0437613243300001</v>
+      </c>
+      <c r="D12">
+        <v>344.36560808977703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B13">
+        <v>5.7040295927566298</v>
+      </c>
+      <c r="C13">
+        <v>5.7136556335040503</v>
+      </c>
+      <c r="D13">
+        <v>216.605192901685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B14">
+        <v>4.5364951352781899</v>
+      </c>
+      <c r="C14">
+        <v>4.5402595702217203</v>
+      </c>
+      <c r="D14">
+        <v>134.890327514966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B15">
+        <v>3.5840550338627799</v>
+      </c>
+      <c r="C15">
+        <v>3.5852182751681698</v>
+      </c>
+      <c r="D15">
+        <v>83.333340821813096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B16">
+        <v>2.85255487256258</v>
+      </c>
+      <c r="C16">
+        <v>2.8526266434151402</v>
+      </c>
+      <c r="D16">
+        <v>51.187479466726401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.2959713534673298</v>
+      </c>
+      <c r="C17">
+        <v>2.2956132413895798</v>
+      </c>
+      <c r="D17">
+        <v>31.320740392994001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B18">
+        <v>1.85580776943321</v>
+      </c>
+      <c r="C18">
+        <v>1.85529525460261</v>
+      </c>
+      <c r="D18">
+        <v>19.115329439397701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B19">
+        <v>1.4871123776169499</v>
+      </c>
+      <c r="C19">
+        <v>1.4865575744480899</v>
+      </c>
+      <c r="D19">
+        <v>11.6433480329334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B20">
+        <v>1.1645019377260999</v>
+      </c>
+      <c r="C20">
+        <v>1.1639567529238599</v>
+      </c>
+      <c r="D20">
+        <v>7.0787839196331204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B21">
+        <v>0.87993661851225002</v>
+      </c>
+      <c r="C21">
+        <v>0.87943673938591804</v>
+      </c>
+      <c r="D21">
+        <v>4.2935895225806302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>0.63675262080665995</v>
+      </c>
+      <c r="C22">
+        <v>0.636327324861095</v>
+      </c>
+      <c r="D22">
+        <v>2.5967177550256699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B23">
+        <v>0.44091611139018899</v>
+      </c>
+      <c r="C23">
+        <v>0.44058189465553099</v>
+      </c>
+      <c r="D23">
+        <v>1.5663747595606701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B24">
+        <v>0.293669157447422</v>
+      </c>
+      <c r="C24">
+        <v>0.29342509446855702</v>
+      </c>
+      <c r="D24">
+        <v>0.94365553571584804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B25">
+        <v>0.18970375590319699</v>
+      </c>
+      <c r="C25">
+        <v>0.18953582289841001</v>
+      </c>
+      <c r="D25">
+        <v>0.56865212662593401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B26">
+        <v>0.11986823950179901</v>
+      </c>
+      <c r="C26">
+        <v>0.119757632869103</v>
+      </c>
+      <c r="D26">
+        <v>0.343083984446934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B27">
+        <v>7.4614185824669998E-2</v>
+      </c>
+      <c r="C27">
+        <v>7.4543489420461004E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.20728675773362601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B28">
+        <v>4.5993551869142002E-2</v>
+      </c>
+      <c r="C28">
+        <v>4.5949244822805303E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.125394310577675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B29">
+        <v>2.8176200850287499E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.8148778039351299E-2</v>
+      </c>
+      <c r="D29">
+        <v>7.5924704383112301E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>1.71945487126582E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.71777082354846E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.60004354909671E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.0468020874050901E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.0457728898294501E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.78817069538916E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>6.3636222626311497E-3</v>
+      </c>
+      <c r="C32">
+        <v>6.3573509800218002E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.6904020123220599E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>3.8650690087229699E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.86125459102036E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.02501727923254E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.34625124647167E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.3439337366198102E-3</v>
+      </c>
+      <c r="D34">
+        <v>6.2160694600521503E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9528B36D-E9C0-1F48-9747-5404970532C3}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -1620,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1708A6-D1E5-1F47-9618-C164502834A1}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -2117,7 +4125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739FB1E6-7826-E746-99B7-F528D69A1BC8}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -2614,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612C8F16-980A-5943-A712-D1059AB18975}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -3111,7 +5119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D17B002-2826-1444-B9CC-5AFD1949B736}">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -3609,6 +5617,2773 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D80951-720E-B34E-9B7B-4690D50B0CDB}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3303585825540098</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.2884241580317699</v>
+      </c>
+      <c r="F2" s="1">
+        <v>91.868199579001995</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3303276518589802</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.2883948598864001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>91.866014596185096</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3302435789213698</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2883152243213898</v>
+      </c>
+      <c r="F4" s="1">
+        <v>91.860075553087796</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3300150849407899</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2880987897292702</v>
+      </c>
+      <c r="F5" s="1">
+        <v>91.843934190236993</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3293942690256602</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.2875107351253599</v>
+      </c>
+      <c r="F6" s="1">
+        <v>91.800076844057401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3277088944242998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.2859142710328699</v>
+      </c>
+      <c r="F7" s="1">
+        <v>91.681003632082493</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3259825632994402</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.28427896689844</v>
+      </c>
+      <c r="F8" s="1">
+        <v>91.559021027002501</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.3231436118817101</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.2815896116901202</v>
+      </c>
+      <c r="F9" s="1">
+        <v>91.358386117079206</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3184826938443499</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.2771740313576201</v>
+      </c>
+      <c r="F10" s="1">
+        <v>91.028896517334701</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.3108513570574498</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2699436648848299</v>
+      </c>
+      <c r="F11" s="1">
+        <v>90.489177908741695</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.29841233700642</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.25815626072895</v>
+      </c>
+      <c r="F12" s="1">
+        <v>89.608806949799501</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.2782847322768598</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.2390777040547798</v>
+      </c>
+      <c r="F13" s="1">
+        <v>88.1826851519793</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.2461019042313302</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2085577727386698</v>
+      </c>
+      <c r="F14" s="1">
+        <v>85.899198585025204</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1956222709739199</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.16064737349694</v>
+      </c>
+      <c r="F15" s="1">
+        <v>82.310472838321004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1188173891624298</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.08764744045037</v>
+      </c>
+      <c r="F16" s="1">
+        <v>76.838352868266497</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0645143389141398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.03697656773948</v>
+      </c>
+      <c r="F17" s="1">
+        <v>70.934215395254796</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.90572741043907</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.8850927787165499</v>
+      </c>
+      <c r="F18" s="1">
+        <v>59.461716716352697</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.70811169696684</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.69429304317701</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45.603919619864499</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3918452369905501</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.3838096918824201</v>
+      </c>
+      <c r="F20" s="1">
+        <v>29.792267995665199</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.19848214370103</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1934629831613099</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20.823993066642199</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96571646003971601</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96280679378197398</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.7693910336409</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.73534045113527602</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.73372625218536802</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8.8237439680582899</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.54103691604168702</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.54007316726364496</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.5560578876594402</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.38828851760161298</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.38775744986493699</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.4806617349349902</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.26588100533629799</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.26555515193179002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.1562223065902901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.17671950112255599</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.176537293885761</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.3273530275963401</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.116916028876294</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.11679738548282501</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.80552147026402499</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.1461866267431201E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.1396601799482207E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.49486312087942902</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB39F0-718E-8446-8F81-D5EAC4389FC9}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.3303585825540098</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.3140545713626199</v>
+      </c>
+      <c r="F2" s="3">
+        <v>113.747020496594</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.3303276518589802</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.3140243422311499</v>
+      </c>
+      <c r="F3" s="3">
+        <v>113.744262344242</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.3302435789213698</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.3139421761501899</v>
+      </c>
+      <c r="F4" s="3">
+        <v>113.736765355627</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.3300150849407899</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.3137188641336199</v>
+      </c>
+      <c r="F5" s="3">
+        <v>113.716389728622</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.3293942690256602</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.3131121238459098</v>
+      </c>
+      <c r="F6" s="3">
+        <v>113.66102741422399</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.3277088944242998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.31146493394807</v>
+      </c>
+      <c r="F7" s="3">
+        <v>113.510717032708</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.3259825632994402</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.3097776738170301</v>
+      </c>
+      <c r="F8" s="3">
+        <v>113.35673242472799</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.3231436118817101</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.3070028827872</v>
+      </c>
+      <c r="F9" s="3">
+        <v>113.103457615823</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.3184826938443499</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.3024470529879899</v>
+      </c>
+      <c r="F10" s="3">
+        <v>112.687511217929</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.3108513570574498</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.29498710630924</v>
+      </c>
+      <c r="F11" s="3">
+        <v>112.006145718341</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.29841233700642</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.2828256471617001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>110.894650683189</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.2782847322768598</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.2631423545559799</v>
+      </c>
+      <c r="F13" s="3">
+        <v>109.09392025197</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.2461019042313302</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.2316572925972999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>106.209321601236</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.1956222709739199</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.1822395109099499</v>
+      </c>
+      <c r="F15" s="3">
+        <v>101.673156435213</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1188173891624298</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.1069693502287401</v>
+      </c>
+      <c r="F16" s="1">
+        <v>94.751696931062597</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0645143389141398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0526244674506899</v>
+      </c>
+      <c r="F17" s="1">
+        <v>87.776774643616605</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.90572741043907</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.8966014854395301</v>
+      </c>
+      <c r="F18" s="1">
+        <v>73.061757914238896</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.70811169696684</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.7015154019845</v>
+      </c>
+      <c r="F19" s="1">
+        <v>55.178559587648799</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3918452369905501</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.38855835220166</v>
+      </c>
+      <c r="F20" s="1">
+        <v>34.844754792290502</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.19848214370103</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.19598018817735</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23.765045775801799</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96571646003971601</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96411742750211604</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15.2677906527856</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.73534045113527602</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.73443511505454395</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9.5483542497962706</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.54103691604168702</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.54047916053580702</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.8892335855027502</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.38828851760161298</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.38795492826662498</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.6288830810988699</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.26588100533629799</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.26566572019392598</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.2242398756961901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.17671950112255599</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.176596089864829</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.3597996544891799</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.116916028876294</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.116841882731071</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.81879439248311303</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.1461866267431201E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.1416239120634398E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.50324742902674302</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0285BC2-A24C-8940-8B30-48D6791B7BAF}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3303585825540098</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.3164530555193599</v>
+      </c>
+      <c r="F2" s="1">
+        <v>114.639897854132</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3303276518589802</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3164226169509101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>114.63710812599</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3302435789213698</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.3163398816448</v>
+      </c>
+      <c r="F4" s="1">
+        <v>114.62952531090301</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3300150849407899</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3161150229315499</v>
+      </c>
+      <c r="F5" s="1">
+        <v>114.60891642359501</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3293942690256602</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3155040828472999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>114.55292033910401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.3277088944242998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.3138455103581399</v>
+      </c>
+      <c r="F7" s="1">
+        <v>114.40088938554599</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3259825632994402</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.3121466196964402</v>
+      </c>
+      <c r="F8" s="1">
+        <v>114.245142350267</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.3231436118817101</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.3093527654302299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>113.98896914029</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3184826938443499</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.30476580878919</v>
+      </c>
+      <c r="F10" s="1">
+        <v>113.568264004111</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.3108513570574498</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.29725535746647</v>
+      </c>
+      <c r="F11" s="1">
+        <v>112.879106531643</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.29841233700642</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.2850128047983498</v>
+      </c>
+      <c r="F12" s="1">
+        <v>111.754909866554</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.2782847322768598</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.2652015451629701</v>
+      </c>
+      <c r="F13" s="1">
+        <v>109.93362707836501</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.2461019042313302</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2335203176101701</v>
+      </c>
+      <c r="F14" s="1">
+        <v>107.016176914985</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1956222709739199</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.1838161303275201</v>
+      </c>
+      <c r="F15" s="1">
+        <v>102.42855454965</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1188173891624298</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.1081611099530502</v>
+      </c>
+      <c r="F16" s="1">
+        <v>95.429172816675802</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0645143389141398</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.05337624808024</v>
+      </c>
+      <c r="F17" s="1">
+        <v>88.447186167115802</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.90572741043907</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.8969557002086901</v>
+      </c>
+      <c r="F18" s="1">
+        <v>73.555811681888599</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.70811169696684</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.70166986716069</v>
+      </c>
+      <c r="F19" s="1">
+        <v>55.493322320447902</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.3918452369905501</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.38861656559119</v>
+      </c>
+      <c r="F20" s="1">
+        <v>34.962480397339803</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.19848214370103</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.19601609210341</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23.8122819984738</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.96571646003971601</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.96415558109767696</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15.2960962996502</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.73534045113527602</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.734450189999029</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9.5562873572525504</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.54103691604168702</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.54048960954927705</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.8920272412485897</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.38828851760161298</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.387959325005306</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.6302293969399102</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.26588100533629799</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.26566697897286301</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.22541612109594</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.17671950112255599</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.176595645444237</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.3601676350241101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.116916028876294</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.116840126007953</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.81299323138495005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.1461866267431201E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.1415938310801702E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.50336185513089005</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EE7633-A005-F94D-B73C-08EA307A6712}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>-15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.7421143199217601</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.68142061364901</v>
+      </c>
+      <c r="F2" s="1">
+        <v>193.404820208698</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.7420552931895799</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.6813651864674402</v>
+      </c>
+      <c r="F3" s="1">
+        <v>193.39685925561</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.7418948600621</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.6812145366977198</v>
+      </c>
+      <c r="F4" s="1">
+        <v>193.37522127685901</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>-12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.7414588917981999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.6808051532323098</v>
+      </c>
+      <c r="F5" s="1">
+        <v>193.31641892727399</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>-11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.74027479796296</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.6796932569894398</v>
+      </c>
+      <c r="F6" s="1">
+        <v>193.15669406397899</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.7370634026142602</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.6766776180320599</v>
+      </c>
+      <c r="F7" s="1">
+        <v>192.72337632591501</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7337787382285401</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.6735930975387801</v>
+      </c>
+      <c r="F8" s="1">
+        <v>192.27998216217301</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7283875955139698</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.6685302771365</v>
+      </c>
+      <c r="F9" s="1">
+        <v>191.551820468145</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>-8.5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.7195647917755301</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.6602443044593298</v>
+      </c>
+      <c r="F10" s="1">
+        <v>190.36009801306199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.7051947389538502</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.6467472860474501</v>
+      </c>
+      <c r="F11" s="1">
+        <v>188.41616170717001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>-7.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.6819717554301401</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.6249315130121502</v>
+      </c>
+      <c r="F12" s="1">
+        <v>185.267025516839</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.4597646406037001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4312619661607999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>120.61978900893401</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.4177973681609801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.3903288896986901</v>
+      </c>
+      <c r="F14" s="1">
+        <v>117.009312935699</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>-6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.3528207335999198</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.3269719115478198</v>
+      </c>
+      <c r="F15" s="1">
+        <v>111.37239820995499</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.20701909044586</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.1863207191988598</v>
+      </c>
+      <c r="F16" s="1">
+        <v>92.672254254487996</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0857187413250098</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0676182867919399</v>
+      </c>
+      <c r="F17" s="1">
+        <v>82.980469438769603</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.9221858663137901</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.9060798645940999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>71.532885656267794</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.6295410586446999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.6210854886016399</v>
+      </c>
+      <c r="F19" s="1">
+        <v>47.930214794202897</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.4081582987340899</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.40246373736715</v>
+      </c>
+      <c r="F20" s="1">
+        <v>34.671567202764201</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1774467079514399</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1740890596456199</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23.291562450402999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.95884452864068104</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.95689945067340498</v>
+      </c>
+      <c r="F22" s="1">
+        <v>15.1404780772033</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.74494639446656596</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.74379338629535896</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9.5364631528020993</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.54442112086210903</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.54377325394188403</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.8839283349705296</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.38895292875948601</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.38855607769109701</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.60596480314612</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.27060722155517197</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.27036770178681002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.2413520324882001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.17893548725713901</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.17880501046605801</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.3576727895987499</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.117668648807293</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.117587805432064</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.82610717614173201</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.1461866267431201E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.1413137234259502E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.50263189175936396</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47FE235-FB5A-6742-8278-3F0768331761}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -4298,7 +9073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06114EF-9307-CD4C-B26D-6BD15F89F148}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -4989,7 +9764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35230064-1173-B648-878D-EED7AD27A329}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -5684,7 +10459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D5EFB7-CB18-8940-B6BF-95F11BD87189}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -6372,1992 +11147,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E8BDC0-1C7A-494E-8238-3B1FFEFD3280}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>54.774172793479401</v>
-      </c>
-      <c r="C2">
-        <v>83.481222561928604</v>
-      </c>
-      <c r="D2">
-        <v>38797.425091958401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>42.031338046322297</v>
-      </c>
-      <c r="C3">
-        <v>56.484017886537302</v>
-      </c>
-      <c r="D3">
-        <v>19506.0440669038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>33.068151771664098</v>
-      </c>
-      <c r="C4">
-        <v>40.070257086784601</v>
-      </c>
-      <c r="D4">
-        <v>15570.490294901199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>26.4535881697817</v>
-      </c>
-      <c r="C5">
-        <v>29.762542566140599</v>
-      </c>
-      <c r="D5">
-        <v>13623.7657006011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>21.246091706811399</v>
-      </c>
-      <c r="C6">
-        <v>22.842237397319</v>
-      </c>
-      <c r="D6">
-        <v>9241.6773419946403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>17.106289475189001</v>
-      </c>
-      <c r="C7">
-        <v>17.966539211394299</v>
-      </c>
-      <c r="D7">
-        <v>6391.1672334325503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>13.9631171798921</v>
-      </c>
-      <c r="C8">
-        <v>14.5289779916271</v>
-      </c>
-      <c r="D8">
-        <v>4487.5966926085403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>11.6648466591655</v>
-      </c>
-      <c r="C9">
-        <v>12.102807417727</v>
-      </c>
-      <c r="D9">
-        <v>3162.2724769323099</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>9.9144654073020195</v>
-      </c>
-      <c r="C10">
-        <v>10.2679814159939</v>
-      </c>
-      <c r="D10">
-        <v>2211.2454837948599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.4200475358023201</v>
-      </c>
-      <c r="C11">
-        <v>8.6958974568350094</v>
-      </c>
-      <c r="D11">
-        <v>1520.4883059562901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>7.0214806162706296</v>
-      </c>
-      <c r="C12">
-        <v>7.2249432354989098</v>
-      </c>
-      <c r="D12">
-        <v>1022.82417764391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.7040295927564904</v>
-      </c>
-      <c r="C13">
-        <v>5.8452863973595299</v>
-      </c>
-      <c r="D13">
-        <v>672.38604511335905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.5364951352778604</v>
-      </c>
-      <c r="C14">
-        <v>4.6284158161223603</v>
-      </c>
-      <c r="D14">
-        <v>432.747756172442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.5840550338627</v>
-      </c>
-      <c r="C15">
-        <v>3.6398530981000201</v>
-      </c>
-      <c r="D15">
-        <v>273.64435979618298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>2.8525548725626102</v>
-      </c>
-      <c r="C16">
-        <v>2.8841880367606301</v>
-      </c>
-      <c r="D16">
-        <v>170.71049570348799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.2959713534673298</v>
-      </c>
-      <c r="C17">
-        <v>2.3128680096512002</v>
-      </c>
-      <c r="D17">
-        <v>105.463805926262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>1.8558077694332</v>
-      </c>
-      <c r="C18">
-        <v>1.86438444800588</v>
-      </c>
-      <c r="D18">
-        <v>64.722050386841005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.4871123776169599</v>
-      </c>
-      <c r="C19">
-        <v>1.4912415353344499</v>
-      </c>
-      <c r="D19">
-        <v>39.538770819756699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.1645019377261101</v>
-      </c>
-      <c r="C20">
-        <v>1.16634782069472</v>
-      </c>
-      <c r="D20">
-        <v>24.078264109860399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.87993661851225002</v>
-      </c>
-      <c r="C21">
-        <v>0.88066052532779104</v>
-      </c>
-      <c r="D21">
-        <v>14.6287479994349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.63675262080666095</v>
-      </c>
-      <c r="C22">
-        <v>0.63696302850143804</v>
-      </c>
-      <c r="D22">
-        <v>8.8711944228876405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.44091611139018899</v>
-      </c>
-      <c r="C23">
-        <v>0.44092036976030202</v>
-      </c>
-      <c r="D23">
-        <v>5.3726448021222897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.293669157447422</v>
-      </c>
-      <c r="C24">
-        <v>0.29361066315301798</v>
-      </c>
-      <c r="D24">
-        <v>3.2518606817681901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.18970375590319699</v>
-      </c>
-      <c r="C25">
-        <v>0.18964045443994099</v>
-      </c>
-      <c r="D25">
-        <v>1.96827820609968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.11986823950179901</v>
-      </c>
-      <c r="C26">
-        <v>0.119818009630846</v>
-      </c>
-      <c r="D26">
-        <v>1.1917984282874201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>7.4614185824670096E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.4578932715594001E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.72196634933874204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>4.5993551869142002E-2</v>
-      </c>
-      <c r="C28">
-        <v>4.5970299310437598E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.43752510462269301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>2.8176200850287499E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.81613829747096E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.26522650374971501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>1.71945487126582E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.7185292195077299E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.16081197940209699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.0468020874050901E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.04623061249557E-2</v>
-      </c>
-      <c r="D31">
-        <v>9.7516237449468607E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>6.3636222626311497E-3</v>
-      </c>
-      <c r="C32">
-        <v>6.3601188390312001E-3</v>
-      </c>
-      <c r="D32">
-        <v>5.9138678945913598E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>3.8650690087229699E-3</v>
-      </c>
-      <c r="C33">
-        <v>3.8629302974756501E-3</v>
-      </c>
-      <c r="D33">
-        <v>3.5866484104474197E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.34625124647167E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.3449489677481402E-3</v>
-      </c>
-      <c r="D34">
-        <v>2.1753035113647401E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C15C16D-3F3A-4445-952C-79188DBCF960}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>54.774172793704501</v>
-      </c>
-      <c r="C2">
-        <v>55.131864487457598</v>
-      </c>
-      <c r="D2">
-        <v>112.82992446196501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>42.031338045808901</v>
-      </c>
-      <c r="C3">
-        <v>42.370628874188</v>
-      </c>
-      <c r="D3">
-        <v>66.810865133096897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>33.068151772237002</v>
-      </c>
-      <c r="C4">
-        <v>33.370790290639199</v>
-      </c>
-      <c r="D4">
-        <v>92.596170748441494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>26.453588169408299</v>
-      </c>
-      <c r="C5">
-        <v>26.7056221876291</v>
-      </c>
-      <c r="D5">
-        <v>69.271935428080397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>21.246091706885501</v>
-      </c>
-      <c r="C6">
-        <v>21.4438289930387</v>
-      </c>
-      <c r="D6">
-        <v>42.297897171231099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>17.106289475146301</v>
-      </c>
-      <c r="C7">
-        <v>17.254221020512201</v>
-      </c>
-      <c r="D7">
-        <v>20.769220395219801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>13.963117179850901</v>
-      </c>
-      <c r="C8">
-        <v>14.070226692799899</v>
-      </c>
-      <c r="D8">
-        <v>12.539057459927699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>11.6648466591502</v>
-      </c>
-      <c r="C9">
-        <v>11.741015220064</v>
-      </c>
-      <c r="D9">
-        <v>12.0675078387284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>9.9144654072968805</v>
-      </c>
-      <c r="C10">
-        <v>9.9678279318580305</v>
-      </c>
-      <c r="D10">
-        <v>11.5192497465699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.42004753580742</v>
-      </c>
-      <c r="C11">
-        <v>8.4562351233143591</v>
-      </c>
-      <c r="D11">
-        <v>10.871112172615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>7.0214806162703098</v>
-      </c>
-      <c r="C12">
-        <v>7.0442195356097397</v>
-      </c>
-      <c r="D12">
-        <v>10.118179372642301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.7040295927561404</v>
-      </c>
-      <c r="C13">
-        <v>5.7159714395589596</v>
-      </c>
-      <c r="D13">
-        <v>9.2763493571359401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.5364951352779697</v>
-      </c>
-      <c r="C14">
-        <v>4.5399390759382499</v>
-      </c>
-      <c r="D14">
-        <v>8.3759038148683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.5840550338627102</v>
-      </c>
-      <c r="C15">
-        <v>3.58149982683359</v>
-      </c>
-      <c r="D15">
-        <v>7.4481583007814898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>2.85255487256262</v>
-      </c>
-      <c r="C16">
-        <v>2.8467547253165302</v>
-      </c>
-      <c r="D16">
-        <v>6.5079179291904703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.2959713534673298</v>
-      </c>
-      <c r="C17">
-        <v>2.2893921251276899</v>
-      </c>
-      <c r="D17">
-        <v>5.5641910602535196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>1.8558077694332</v>
-      </c>
-      <c r="C18">
-        <v>1.8500322599196899</v>
-      </c>
-      <c r="D18">
-        <v>4.6309185949349096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.4871123776169499</v>
-      </c>
-      <c r="C19">
-        <v>1.48273912137849</v>
-      </c>
-      <c r="D19">
-        <v>3.7317773422751399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.1645019377261101</v>
-      </c>
-      <c r="C20">
-        <v>1.16147455814065</v>
-      </c>
-      <c r="D20">
-        <v>2.8941719074282402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.87993661851224902</v>
-      </c>
-      <c r="C21">
-        <v>0.877945067947276</v>
-      </c>
-      <c r="D21">
-        <v>2.1475203074778899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.63675262080666095</v>
-      </c>
-      <c r="C22">
-        <v>0.63547860244541998</v>
-      </c>
-      <c r="D22">
-        <v>1.5208316825923101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.44091611139018899</v>
-      </c>
-      <c r="C23">
-        <v>0.44011475559219199</v>
-      </c>
-      <c r="D23">
-        <v>1.0314885686075701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.293669157447422</v>
-      </c>
-      <c r="C24">
-        <v>0.29317096528051201</v>
-      </c>
-      <c r="D24">
-        <v>0.67533774432337801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.18970375590319699</v>
-      </c>
-      <c r="C25">
-        <v>0.189396628857331</v>
-      </c>
-      <c r="D25">
-        <v>0.43075199527953201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.11986823950179901</v>
-      </c>
-      <c r="C26">
-        <v>0.119680003630945</v>
-      </c>
-      <c r="D26">
-        <v>0.26979525404957599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>7.4614185824670096E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.4499264414132904E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.16697424015044099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>4.5993551869142002E-2</v>
-      </c>
-      <c r="C28">
-        <v>4.5923564936507698E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.10254454524449801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>2.8176200850287499E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.8133645602193301E-2</v>
-      </c>
-      <c r="D29">
-        <v>6.2677355571860702E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>1.71945487126582E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.7168698258151E-2</v>
-      </c>
-      <c r="D30">
-        <v>3.8194894750098698E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.0468020874050901E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.04523272024602E-2</v>
-      </c>
-      <c r="D31">
-        <v>2.32327880484994E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>6.3636222626311497E-3</v>
-      </c>
-      <c r="C32">
-        <v>6.3540981870789399E-3</v>
-      </c>
-      <c r="D32">
-        <v>1.4115944226400501E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>3.8650690087229699E-3</v>
-      </c>
-      <c r="C33">
-        <v>3.8592903803981102E-3</v>
-      </c>
-      <c r="D33">
-        <v>8.5708084829327902E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.34625124647167E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.34274560019134E-3</v>
-      </c>
-      <c r="D34">
-        <v>5.2017951874816504E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A5F18C-CB85-7E49-B60E-1D3620CA95E5}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>54.774172793302398</v>
-      </c>
-      <c r="C2">
-        <v>87.129431317070797</v>
-      </c>
-      <c r="D2">
-        <v>42835.540471340501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>42.031338045999398</v>
-      </c>
-      <c r="C3">
-        <v>59.048183996870002</v>
-      </c>
-      <c r="D3">
-        <v>23072.880979550901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>33.068151771933699</v>
-      </c>
-      <c r="C4">
-        <v>41.748155665798002</v>
-      </c>
-      <c r="D4">
-        <v>13895.568675274701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>26.453588169334999</v>
-      </c>
-      <c r="C5">
-        <v>30.771937018482799</v>
-      </c>
-      <c r="D5">
-        <v>10379.2747959191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>21.2460917067046</v>
-      </c>
-      <c r="C6">
-        <v>23.3601642215786</v>
-      </c>
-      <c r="D6">
-        <v>6364.9583344437096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>17.106289475151002</v>
-      </c>
-      <c r="C7">
-        <v>18.1286670149522</v>
-      </c>
-      <c r="D7">
-        <v>3841.77725671293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>13.9631171798961</v>
-      </c>
-      <c r="C8">
-        <v>14.4522971428181</v>
-      </c>
-      <c r="D8">
-        <v>2308.8299524670601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>11.6648466591515</v>
-      </c>
-      <c r="C9">
-        <v>11.8974256175468</v>
-      </c>
-      <c r="D9">
-        <v>1386.3228557667601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>9.9144654072924006</v>
-      </c>
-      <c r="C10">
-        <v>10.0262728670304</v>
-      </c>
-      <c r="D10">
-        <v>836.00522691296999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.4200475358048692</v>
-      </c>
-      <c r="C11">
-        <v>8.4770564299992799</v>
-      </c>
-      <c r="D11">
-        <v>507.88927903340601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>7.0214806162708001</v>
-      </c>
-      <c r="C12">
-        <v>7.0541956305904101</v>
-      </c>
-      <c r="D12">
-        <v>311.03519793420901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.7040295927559601</v>
-      </c>
-      <c r="C13">
-        <v>5.7251730174086299</v>
-      </c>
-      <c r="D13">
-        <v>191.92148843199499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.5364951352778098</v>
-      </c>
-      <c r="C14">
-        <v>4.5508411778820399</v>
-      </c>
-      <c r="D14">
-        <v>119.084620617396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.5840550338628101</v>
-      </c>
-      <c r="C15">
-        <v>3.5935226160734901</v>
-      </c>
-      <c r="D15">
-        <v>74.045400931325304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>2.8525548725626</v>
-      </c>
-      <c r="C16">
-        <v>2.8583479126870999</v>
-      </c>
-      <c r="D16">
-        <v>45.9727399261904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.2959713534673201</v>
-      </c>
-      <c r="C17">
-        <v>2.2991629366053399</v>
-      </c>
-      <c r="D17">
-        <v>28.4387641345098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>1.85580776943319</v>
-      </c>
-      <c r="C18">
-        <v>1.8573293375865401</v>
-      </c>
-      <c r="D18">
-        <v>17.514135038812299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.4871123776169499</v>
-      </c>
-      <c r="C19">
-        <v>1.4876658969452501</v>
-      </c>
-      <c r="D19">
-        <v>10.7382642251376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.1645019377261101</v>
-      </c>
-      <c r="C20">
-        <v>1.16455095746189</v>
-      </c>
-      <c r="D20">
-        <v>6.5555936429379997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.87993661851224902</v>
-      </c>
-      <c r="C21">
-        <v>0.87975997932874805</v>
-      </c>
-      <c r="D21">
-        <v>3.9851703365396598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.63675262080666095</v>
-      </c>
-      <c r="C22">
-        <v>0.63650856498227304</v>
-      </c>
-      <c r="D22">
-        <v>2.41230900795841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.44091611139018899</v>
-      </c>
-      <c r="C23">
-        <v>0.440686567719142</v>
-      </c>
-      <c r="D23">
-        <v>1.4552885741174699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.293669157447422</v>
-      </c>
-      <c r="C24">
-        <v>0.293486835439142</v>
-      </c>
-      <c r="D24">
-        <v>0.87645224275156797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.18970375590319699</v>
-      </c>
-      <c r="C25">
-        <v>0.189572703325706</v>
-      </c>
-      <c r="D25">
-        <v>0.52792120107447704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.11986823950179901</v>
-      </c>
-      <c r="C26">
-        <v>0.11977981649177601</v>
-      </c>
-      <c r="D26">
-        <v>0.31838075006440603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>7.4614185824670096E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.4556882517495496E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.192301435644637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>4.5993551869142002E-2</v>
-      </c>
-      <c r="C28">
-        <v>4.5957346931923E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.116303870587586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>2.8176200850287499E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.81536847895341E-2</v>
-      </c>
-      <c r="D29">
-        <v>7.0410415933253007E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>1.71945487126582E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.7180681685329401E-2</v>
-      </c>
-      <c r="D30">
-        <v>4.2655573821548297E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.0468020874050901E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.04595314340102E-2</v>
-      </c>
-      <c r="D31">
-        <v>2.58528361083421E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>6.3636222626311497E-3</v>
-      </c>
-      <c r="C32">
-        <v>6.3584439272476399E-3</v>
-      </c>
-      <c r="D32">
-        <v>1.56734056044882E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>3.8650690087229699E-3</v>
-      </c>
-      <c r="C33">
-        <v>3.8619173707806599E-3</v>
-      </c>
-      <c r="D33">
-        <v>9.5037514462603598E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.34625124647167E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.3443356866537802E-3</v>
-      </c>
-      <c r="D34">
-        <v>5.7633360874831396E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98CB5-A127-3249-A206-D976CAA2767C}">
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>-15</v>
-      </c>
-      <c r="B2">
-        <v>54.774172792862203</v>
-      </c>
-      <c r="C2">
-        <v>88.803810337866594</v>
-      </c>
-      <c r="D2">
-        <v>42247.957947372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>-14.5</v>
-      </c>
-      <c r="B3">
-        <v>42.031338045041402</v>
-      </c>
-      <c r="C3">
-        <v>59.708698110383999</v>
-      </c>
-      <c r="D3">
-        <v>21701.982584529102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>-14</v>
-      </c>
-      <c r="B4">
-        <v>33.068151772052502</v>
-      </c>
-      <c r="C4">
-        <v>41.908440936373601</v>
-      </c>
-      <c r="D4">
-        <v>13234.553628821899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>-13.5</v>
-      </c>
-      <c r="B5">
-        <v>26.453588169305998</v>
-      </c>
-      <c r="C5">
-        <v>30.737070957933</v>
-      </c>
-      <c r="D5">
-        <v>9031.22404528072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>-13</v>
-      </c>
-      <c r="B6">
-        <v>21.246091706785499</v>
-      </c>
-      <c r="C6">
-        <v>23.292321686786401</v>
-      </c>
-      <c r="D6">
-        <v>5522.9390774242802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>-12.5</v>
-      </c>
-      <c r="B7">
-        <v>17.1062894751397</v>
-      </c>
-      <c r="C7">
-        <v>18.082566508196301</v>
-      </c>
-      <c r="D7">
-        <v>3396.2649303179301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>-12</v>
-      </c>
-      <c r="B8">
-        <v>13.963117179904</v>
-      </c>
-      <c r="C8">
-        <v>14.429089755150599</v>
-      </c>
-      <c r="D8">
-        <v>2112.4554849818201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>-11.5</v>
-      </c>
-      <c r="B9">
-        <v>11.6648466591445</v>
-      </c>
-      <c r="C9">
-        <v>11.886555585841</v>
-      </c>
-      <c r="D9">
-        <v>1332.0097294565801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>-11</v>
-      </c>
-      <c r="B10">
-        <v>9.9144654072986391</v>
-      </c>
-      <c r="C10">
-        <v>10.019304724797999</v>
-      </c>
-      <c r="D10">
-        <v>848.79802219893804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>-10.5</v>
-      </c>
-      <c r="B11">
-        <v>8.4200475358094007</v>
-      </c>
-      <c r="C11">
-        <v>8.4690188502525707</v>
-      </c>
-      <c r="D11">
-        <v>542.20320957597301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>-10</v>
-      </c>
-      <c r="B12">
-        <v>7.0214806162708099</v>
-      </c>
-      <c r="C12">
-        <v>7.0437613243300001</v>
-      </c>
-      <c r="D12">
-        <v>344.36560808977703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>-9.5</v>
-      </c>
-      <c r="B13">
-        <v>5.7040295927566298</v>
-      </c>
-      <c r="C13">
-        <v>5.7136556335040503</v>
-      </c>
-      <c r="D13">
-        <v>216.605192901685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>-9</v>
-      </c>
-      <c r="B14">
-        <v>4.5364951352781899</v>
-      </c>
-      <c r="C14">
-        <v>4.5402595702217203</v>
-      </c>
-      <c r="D14">
-        <v>134.890327514966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>-8.5</v>
-      </c>
-      <c r="B15">
-        <v>3.5840550338627799</v>
-      </c>
-      <c r="C15">
-        <v>3.5852182751681698</v>
-      </c>
-      <c r="D15">
-        <v>83.333340821813096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>-8</v>
-      </c>
-      <c r="B16">
-        <v>2.85255487256258</v>
-      </c>
-      <c r="C16">
-        <v>2.8526266434151402</v>
-      </c>
-      <c r="D16">
-        <v>51.187479466726401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>-7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.2959713534673298</v>
-      </c>
-      <c r="C17">
-        <v>2.2956132413895798</v>
-      </c>
-      <c r="D17">
-        <v>31.320740392994001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>-7</v>
-      </c>
-      <c r="B18">
-        <v>1.85580776943321</v>
-      </c>
-      <c r="C18">
-        <v>1.85529525460261</v>
-      </c>
-      <c r="D18">
-        <v>19.115329439397701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>-6.5</v>
-      </c>
-      <c r="B19">
-        <v>1.4871123776169499</v>
-      </c>
-      <c r="C19">
-        <v>1.4865575744480899</v>
-      </c>
-      <c r="D19">
-        <v>11.6433480329334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>-6</v>
-      </c>
-      <c r="B20">
-        <v>1.1645019377260999</v>
-      </c>
-      <c r="C20">
-        <v>1.1639567529238599</v>
-      </c>
-      <c r="D20">
-        <v>7.0787839196331204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>-5.5</v>
-      </c>
-      <c r="B21">
-        <v>0.87993661851225002</v>
-      </c>
-      <c r="C21">
-        <v>0.87943673938591804</v>
-      </c>
-      <c r="D21">
-        <v>4.2935895225806302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>-5</v>
-      </c>
-      <c r="B22">
-        <v>0.63675262080665995</v>
-      </c>
-      <c r="C22">
-        <v>0.636327324861095</v>
-      </c>
-      <c r="D22">
-        <v>2.5967177550256699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>-4.5</v>
-      </c>
-      <c r="B23">
-        <v>0.44091611139018899</v>
-      </c>
-      <c r="C23">
-        <v>0.44058189465553099</v>
-      </c>
-      <c r="D23">
-        <v>1.5663747595606701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B24">
-        <v>0.293669157447422</v>
-      </c>
-      <c r="C24">
-        <v>0.29342509446855702</v>
-      </c>
-      <c r="D24">
-        <v>0.94365553571584804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>-3.5</v>
-      </c>
-      <c r="B25">
-        <v>0.18970375590319699</v>
-      </c>
-      <c r="C25">
-        <v>0.18953582289841001</v>
-      </c>
-      <c r="D25">
-        <v>0.56865212662593401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B26">
-        <v>0.11986823950179901</v>
-      </c>
-      <c r="C26">
-        <v>0.119757632869103</v>
-      </c>
-      <c r="D26">
-        <v>0.343083984446934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>-2.5</v>
-      </c>
-      <c r="B27">
-        <v>7.4614185824669998E-2</v>
-      </c>
-      <c r="C27">
-        <v>7.4543489420461004E-2</v>
-      </c>
-      <c r="D27">
-        <v>0.20728675773362601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>-2</v>
-      </c>
-      <c r="B28">
-        <v>4.5993551869142002E-2</v>
-      </c>
-      <c r="C28">
-        <v>4.5949244822805303E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.125394310577675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>-1.5</v>
-      </c>
-      <c r="B29">
-        <v>2.8176200850287499E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.8148778039351299E-2</v>
-      </c>
-      <c r="D29">
-        <v>7.5924704383112301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B30">
-        <v>1.71945487126582E-2</v>
-      </c>
-      <c r="C30">
-        <v>1.71777082354846E-2</v>
-      </c>
-      <c r="D30">
-        <v>4.60004354909671E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B31">
-        <v>1.0468020874050901E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.0457728898294501E-2</v>
-      </c>
-      <c r="D31">
-        <v>2.78817069538916E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>6.3636222626311497E-3</v>
-      </c>
-      <c r="C32">
-        <v>6.3573509800218002E-3</v>
-      </c>
-      <c r="D32">
-        <v>1.6904020123220599E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B33">
-        <v>3.8650690087229699E-3</v>
-      </c>
-      <c r="C33">
-        <v>3.86125459102036E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.02501727923254E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2.34625124647167E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.3439337366198102E-3</v>
-      </c>
-      <c r="D34">
-        <v>6.2160694600521503E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>